--- a/medicine/Médecine vétérinaire/Peste_du_canard/Peste_du_canard.xlsx
+++ b/medicine/Médecine vétérinaire/Peste_du_canard/Peste_du_canard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La peste du canard (également appelée herpesvirose des anatidés) est une entérite virale contagieuse et aiguë due à un Herpesviridae (Duck herpesvirus 1 ou « DHV-1 ») de la sous-famille des alphaherpesvirinae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La peste du canard (également appelée herpesvirose des anatidés) est une entérite virale contagieuse et aiguë due à un Herpesviridae (Duck herpesvirus 1 ou « DHV-1 ») de la sous-famille des alphaherpesvirinae. 
 Cette maladie affecte tous et uniquement les anatidés, mais plus ou moins sévèrement selon les espèces.
-Certaines souches de pestes ne touchent que certaines espèces en particulier comme une peste identifiée chez le canard de Barbarie[2], espèce qui semble la plus sensible. Les animaux atteints et survivants par la suite peuvent être porteurs sains pendant plusieurs années après leur contamination. Les fientes, les sécrétions nasales ainsi que la surface des œufs des animaux affecté abritent ces virus. La maladie se transmet par contact.
+Certaines souches de pestes ne touchent que certaines espèces en particulier comme une peste identifiée chez le canard de Barbarie, espèce qui semble la plus sensible. Les animaux atteints et survivants par la suite peuvent être porteurs sains pendant plusieurs années après leur contamination. Les fientes, les sécrétions nasales ainsi que la surface des œufs des animaux affecté abritent ces virus. La maladie se transmet par contact.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Épistémologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers cas de diagnostic de peste du canard l'ont probablement été aux Pays-Bas en 1923 où elle a causé des mortalité de l'ordre de 90 à 100 % dans certains élevages. 
 Cette maladie devait auparavant être assimilée aux pestes aviaires causées par les virus de la grippe.
@@ -547,9 +561,11 @@
           <t>Maladie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La période d'incubation est de 7 jours chez le canard domestique[3], la mortalité est supérieur à 90 %[4]. Les principaux symptômes extérieurs sont les sécrétions nasales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période d'incubation est de 7 jours chez le canard domestique, la mortalité est supérieur à 90 %. Les principaux symptômes extérieurs sont les sécrétions nasales.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Traitement, vaccination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vaccination est aujourd'hui une pratique habituelle aux États-Unis[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vaccination est aujourd'hui une pratique habituelle aux États-Unis.
 </t>
         </is>
       </c>
